--- a/Python/Jerseys/NHLGamePredictions.xlsx
+++ b/Python/Jerseys/NHLGamePredictions.xlsx
@@ -5,29 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Jerseys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Jerseys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{610AF299-D4B0-479D-87C7-309A42C6863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C86DF-1E71-4E48-967E-46ACB97953E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14671ADB-21A6-40D3-9D43-7FFD5CF5840D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{14671ADB-21A6-40D3-9D43-7FFD5CF5840D}"/>
   </bookViews>
   <sheets>
     <sheet name="DataRegularSeason20242025" sheetId="1" r:id="rId1"/>
     <sheet name="StatsRegularSeason20242025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>DatePickMade</t>
   </si>
@@ -173,15 +183,6 @@
     <t>ANA</t>
   </si>
   <si>
-    <t>NumAwayGames</t>
-  </si>
-  <si>
-    <t>NumHomeGames</t>
-  </si>
-  <si>
-    <t>NumGames</t>
-  </si>
-  <si>
     <t>TimesPredictedWinner</t>
   </si>
   <si>
@@ -198,18 +199,6 @@
   </si>
   <si>
     <t>TimesPredictionHomeCorrect</t>
-  </si>
-  <si>
-    <t>AwayWins</t>
-  </si>
-  <si>
-    <t>AwayLosses</t>
-  </si>
-  <si>
-    <t>HomeWins</t>
-  </si>
-  <si>
-    <t>HomeLosses</t>
   </si>
   <si>
     <t>TimesPredictedWinnerAway</t>
@@ -231,6 +220,54 @@
   </si>
   <si>
     <t>CorrectWinnerPrediction</t>
+  </si>
+  <si>
+    <t>GP_A</t>
+  </si>
+  <si>
+    <t>GP_H</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>W_A</t>
+  </si>
+  <si>
+    <t>L_A</t>
+  </si>
+  <si>
+    <t>W_H</t>
+  </si>
+  <si>
+    <t>L_H</t>
+  </si>
+  <si>
+    <t>GF_A</t>
+  </si>
+  <si>
+    <t>GA_A</t>
+  </si>
+  <si>
+    <t>GD_A</t>
+  </si>
+  <si>
+    <t>GF_H</t>
+  </si>
+  <si>
+    <t>GD_H</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>GA_H</t>
   </si>
 </sst>
 </file>
@@ -311,7 +348,1115 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAA100"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0054BA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF861818"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1530A5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFCC66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6709"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0033CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF126000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1530A5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2E600"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFDF55F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFA8F00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFA8F00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1B6BCB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF73FDD9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF9ED05"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF9ED05"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF73FDD9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1B6BCB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFA8F00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFA8F00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFDF55F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF1530A5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2E600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF126000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0033CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6709"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFCC66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1530A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAA100"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0054BA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF861818"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAA100"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0054BA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF861818"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF861818"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF7E609"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0054BA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAA100"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -370,6 +1515,20 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF777777"/>
+      <color rgb="FFF9ED05"/>
+      <color rgb="FF73FDD9"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF1B6BCB"/>
+      <color rgb="FFFA8F00"/>
+      <color rgb="FF009999"/>
+      <color rgb="FFFDF55F"/>
+      <color rgb="FFF2FFA3"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -382,29 +1541,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B054025-4CD5-437B-A2B1-4953810278F9}" name="Table2" displayName="Table2" ref="A1:P1315" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B054025-4CD5-437B-A2B1-4953810278F9}" name="Table2" displayName="Table2" ref="A1:P1315" totalsRowShown="0" dataDxfId="93" headerRowBorderDxfId="94">
   <autoFilter ref="A1:P1315" xr:uid="{5B054025-4CD5-437B-A2B1-4953810278F9}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{4F0EF3E3-5ED2-413B-9486-9498BEF02C85}" name="DatePickMade"/>
     <tableColumn id="2" xr3:uid="{39F623AD-0A71-404E-ACB2-FF5C232C4B60}" name="GameDate"/>
-    <tableColumn id="3" xr3:uid="{F9CBDD2B-6977-478D-B9B1-48132BC29B8D}" name="GameID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{2B6D103E-CF04-4221-A032-6566D087A240}" name="AwayTeam" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E9B83039-5C7E-45B4-A5F1-F54DF85D8DB5}" name="HomeTeam" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{CA60FB2E-C878-4F57-9486-8FFAB21268D1}" name="PredictedAwayScore" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{BDE84EDC-079B-4057-84F6-42C28780CF56}" name="PredictedHomeScore" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{AB1145B6-73D2-4952-891E-2532100229DC}" name="PredictedWinner" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{0FDA5C85-1339-41A1-AEB6-455F4E077F46}" name="PredictedResult" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{6C6A6DF0-F9AE-4DAF-8957-8621DF7520A2}" name="ActualAwayScore" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{B8B678E5-1823-43AE-95CC-BEE79D908CEE}" name="ActualHomeScore" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{C650F2F7-7978-49EE-8737-DCE1A6311E23}" name="ActualWinner" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{C3C777BB-B7C0-4722-9240-DAC37612029E}" name="ActualResult" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{C40BC093-C7BF-4F78-9D28-E8E87FFCAD46}" name="CorrectWinnerPrediction" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{F9CBDD2B-6977-478D-B9B1-48132BC29B8D}" name="GameID" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{2B6D103E-CF04-4221-A032-6566D087A240}" name="AwayTeam" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{E9B83039-5C7E-45B4-A5F1-F54DF85D8DB5}" name="HomeTeam" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{CA60FB2E-C878-4F57-9486-8FFAB21268D1}" name="PredictedAwayScore" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{BDE84EDC-079B-4057-84F6-42C28780CF56}" name="PredictedHomeScore" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{AB1145B6-73D2-4952-891E-2532100229DC}" name="PredictedWinner" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{0FDA5C85-1339-41A1-AEB6-455F4E077F46}" name="PredictedResult" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{6C6A6DF0-F9AE-4DAF-8957-8621DF7520A2}" name="ActualAwayScore" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{B8B678E5-1823-43AE-95CC-BEE79D908CEE}" name="ActualHomeScore" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{C650F2F7-7978-49EE-8737-DCE1A6311E23}" name="ActualWinner" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{C3C777BB-B7C0-4722-9240-DAC37612029E}" name="ActualResult" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{C40BC093-C7BF-4F78-9D28-E8E87FFCAD46}" name="CorrectWinnerPrediction" dataDxfId="81">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[ActualResult]]), "_", IF(Table2[[#This Row],[ActualWinner]]=Table2[[#This Row],[PredictedWinner]], "Y", "N"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C618B085-5C74-412F-85AA-D89305FDA75C}" name="CorrectAwayScorePrediction" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{C618B085-5C74-412F-85AA-D89305FDA75C}" name="CorrectAwayScorePrediction" dataDxfId="80">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[ActualResult]]), "_", IF(Table2[[#This Row],[ActualAwayScore]]=Table2[[#This Row],[PredictedAwayScore]], "Y", "N"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7C4F0E40-7EDA-4325-8813-A3960FBAB575}" name="CorrectHomeScorePrediction" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{7C4F0E40-7EDA-4325-8813-A3960FBAB575}" name="CorrectHomeScorePrediction" dataDxfId="79">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[ActualHomeScore]]), "_", IF(Table2[[#This Row],[ActualHomeScore]]=Table2[[#This Row],[PredictedHomeScore]], "Y", "N"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -731,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15492753-FCFF-4542-BEA4-B0F720F8CF4C}">
   <dimension ref="A1:P1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,13 +1955,13 @@
         <v>11</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -813,7 +1972,7 @@
         <v>45570</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -868,7 +2027,7 @@
         <v>45570</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1735,6 +2894,9 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45574</v>
+      </c>
       <c r="B21" s="1">
         <v>45576</v>
       </c>
@@ -1745,13 +2907,19 @@
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6</v>
+      </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>_</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>CAR</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="str">
@@ -1773,6 +2941,9 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45574</v>
+      </c>
       <c r="B22" s="1">
         <v>45576</v>
       </c>
@@ -1783,13 +2954,19 @@
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>_</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>WPG</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="str">
@@ -1811,6 +2988,9 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45574</v>
+      </c>
       <c r="B23" s="1">
         <v>45576</v>
       </c>
@@ -1821,13 +3001,19 @@
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>_</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>VAN</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="str">
@@ -1849,7 +3035,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3">
+        <v>45574</v>
+      </c>
       <c r="B24" s="3">
         <v>45576</v>
       </c>
@@ -1860,13 +3048,19 @@
       <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>_</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>STL</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="str">
@@ -42008,6 +43202,104 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:P1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"UTA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>"SEA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>"SJS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"PHI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"PIT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+      <formula>"DET"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="equal">
+      <formula>"CBJ"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
+      <formula>"CGY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="28" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
+      <formula>"CHI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+      <formula>"BUF"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+      <formula>"ANA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -42018,1946 +43310,3101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8067C-46A5-4B78-BAED-69F679E3BC89}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
-        <f t="array" aca="1" ref="A2:A33" ca="1">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(DataRegularSeason20242025!$D2:$D1315, DataRegularSeason20242025!$E2:$E1315), (_xlfn.VSTACK(DataRegularSeason20242025!$D2:$D1315, DataRegularSeason20242025!$E2:$E1315)&lt;&gt;""))))</f>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="array" ref="A2:A33">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(DataRegularSeason20242025!$D2:$D1315, DataRegularSeason20242025!$E2:$E1315), (_xlfn.VSTACK(DataRegularSeason20242025!$D2:$D1315, DataRegularSeason20242025!$E2:$E1315)&lt;&gt;""))))</f>
+        <v>ANA</v>
+      </c>
+      <c r="B2" t="e">
+        <f ca="1">_xludf.UNIQUE(DataRegularSeason20242025!$D2:$D1315)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B2" t="e">
-        <f ca="1">UNIQUE(DataRegularSeason20242025!$D2:$D1315)</f>
-        <v>#NAME?</v>
-      </c>
       <c r="C2">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A2)</f>
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A2)</f>
         <v>0</v>
       </c>
-      <c r="D2">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A2)</f>
+      <c r="E2">
+        <f>C2+D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A2, DataRegularSeason20242025!$L$2:$L$1315, A2)</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <f ca="1">C2+D2</f>
+      <c r="G2">
+        <f>C2-F2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A2, DataRegularSeason20242025!$L2:$L1315, A2)</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A2, DataRegularSeason20242025!$L$2:$L$1315, A2)</f>
+      <c r="I2">
+        <f>D2-H2</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <f ca="1">C2-F2</f>
+      <c r="J2">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A2, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A2, DataRegularSeason20242025!$L2:$L1315, A2)</f>
+      <c r="K2">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A2, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f ca="1">D2-H2</f>
+      <c r="L2">
+        <f>J2-K2</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A2,DataRegularSeason20242025!$H$2:$H$1315, $A2)</f>
+      <c r="M2">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A2,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A2,DataRegularSeason20242025!$H$2:$H$1315, $A2)</f>
+      <c r="N2">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A2,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="L2">
-        <f ca="1">J2+K2</f>
+      <c r="O2">
+        <f>M2-N2</f>
         <v>0</v>
       </c>
-      <c r="M2">
-        <f ca="1">C2-J2</f>
+      <c r="P2">
+        <f>J2+M2</f>
         <v>0</v>
       </c>
-      <c r="N2">
-        <f ca="1">D2-K2</f>
+      <c r="Q2">
+        <f>K2+N2</f>
         <v>0</v>
       </c>
-      <c r="O2">
-        <f ca="1">M2+N2</f>
+      <c r="R2">
+        <f>P2-Q2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="8">
-        <f ca="1">(M2+J2)</f>
+      <c r="S2">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A2,DataRegularSeason20242025!$H$2:$H$1315, $A2)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="T2">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A2,DataRegularSeason20242025!$H$2:$H$1315, $A2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>S2+T2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>C2-S2</f>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>D2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>V2+W2</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>(V2+S2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>BOS</v>
       </c>
       <c r="C3">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A3)</f>
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="0">C3+D3</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A3, DataRegularSeason20242025!$L$2:$L$1315, A3)</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A3)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G33" si="1">C3-F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A3, DataRegularSeason20242025!$L3:$L1316, A3)</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E33" ca="1" si="0">C3+D3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I33" si="2">D3-H3</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A3, DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A3, DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L33" si="3">J3-K3</f>
+        <v>-2</v>
+      </c>
+      <c r="M3">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A3,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A3, DataRegularSeason20242025!$L$2:$L$1315, A3)</f>
+      <c r="N3">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A3,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G33" ca="1" si="1">C3-F3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O33" si="4">M3-N3</f>
         <v>0</v>
       </c>
-      <c r="H3">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A3, DataRegularSeason20242025!$L3:$L1316, A3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="5">J3+M3</f>
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="6">K3+N3</f>
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="7">P3-Q3</f>
+        <v>-2</v>
+      </c>
+      <c r="S3">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A3,DataRegularSeason20242025!$H$2:$H$1315, $A3)</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I33" ca="1" si="2">D3-H3</f>
+      <c r="T3">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A3,DataRegularSeason20242025!$H$2:$H$1315, $A3)</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U33" si="8">S3+T3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V33" si="9">C3-S3</f>
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W33" si="10">D3-T3</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X33" si="11">V3+W3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>BUF</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A4)</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A4, DataRegularSeason20242025!$L$2:$L$1315, A4)</f>
         <v>0</v>
       </c>
-      <c r="J3">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A3,DataRegularSeason20242025!$H$2:$H$1315, $A3)</f>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A4, DataRegularSeason20242025!$L4:$L1317, A4)</f>
         <v>0</v>
       </c>
-      <c r="K3">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A3,DataRegularSeason20242025!$H$2:$H$1315, $A3)</f>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A4, DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A4, DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A4,DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A4,DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A4,DataRegularSeason20242025!$H$2:$H$1315, $A4)</f>
         <v>0</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L33" ca="1" si="3">J3+K3</f>
+      <c r="T4">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A4,DataRegularSeason20242025!$H$2:$H$1315, $A4)</f>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A5)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A5, DataRegularSeason20242025!$L$2:$L$1315, A5)</f>
         <v>0</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M33" ca="1" si="4">C3-J3</f>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A5, DataRegularSeason20242025!$L5:$L1318, A5)</f>
         <v>0</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N33" ca="1" si="5">D3-K3</f>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A5, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O33" ca="1" si="6">M3+N3</f>
+      <c r="K5">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A5, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C4">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A4)</f>
+      <c r="L5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D4">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A4)</f>
+      <c r="M5">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A5,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N5">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A5,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A4, DataRegularSeason20242025!$L$2:$L$1315, A4)</f>
+      <c r="O5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H4">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A4, DataRegularSeason20242025!$L4:$L1317, A4)</f>
+      <c r="Q5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R5">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J4">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A4,DataRegularSeason20242025!$H$2:$H$1315, $A4)</f>
+      <c r="S5">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A5,DataRegularSeason20242025!$H$2:$H$1315, $A5)</f>
         <v>0</v>
       </c>
-      <c r="K4">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A4,DataRegularSeason20242025!$H$2:$H$1315, $A4)</f>
+      <c r="T5">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A5,DataRegularSeason20242025!$H$2:$H$1315, $A5)</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>CBJ</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A6)</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A6)</f>
         <v>0</v>
       </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="4"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A6, DataRegularSeason20242025!$L$2:$L$1315, A6)</f>
         <v>0</v>
       </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A6, DataRegularSeason20242025!$L6:$L1319, A6)</f>
         <v>0</v>
       </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="6"/>
+      <c r="I6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A5)</f>
+      <c r="J6">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A6, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="D5">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A5)</f>
+      <c r="K6">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A6, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A5, DataRegularSeason20242025!$L$2:$L$1315, A5)</f>
+      <c r="M6">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A6,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N6">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A6,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H5">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A5, DataRegularSeason20242025!$L5:$L1318, A5)</f>
+      <c r="O6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="P6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J5">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A5,DataRegularSeason20242025!$H$2:$H$1315, $A5)</f>
+      <c r="Q6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K5">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A5,DataRegularSeason20242025!$H$2:$H$1315, $A5)</f>
+      <c r="R6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="3"/>
+      <c r="S6">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A6,DataRegularSeason20242025!$H$2:$H$1315, $A6)</f>
         <v>0</v>
       </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="4"/>
+      <c r="T6">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A6,DataRegularSeason20242025!$H$2:$H$1315, $A6)</f>
         <v>0</v>
       </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="5"/>
+      <c r="U6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="6"/>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A6)</f>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>CGY</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A7, DataRegularSeason20242025!$L$2:$L$1315, A7)</f>
         <v>0</v>
       </c>
-      <c r="D6">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A6)</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A7, DataRegularSeason20242025!$L7:$L1320, A7)</f>
         <v>0</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A7, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F6">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A6, DataRegularSeason20242025!$L$2:$L$1315, A6)</f>
+      <c r="K7">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A7, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A6, DataRegularSeason20242025!$L6:$L1319, A6)</f>
+      <c r="M7">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A7,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N7">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A7,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="J6">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A6,DataRegularSeason20242025!$H$2:$H$1315, $A6)</f>
+      <c r="O7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A6,DataRegularSeason20242025!$H$2:$H$1315, $A6)</f>
+      <c r="P7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Q7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="4"/>
+      <c r="R7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="S7">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A7,DataRegularSeason20242025!$H$2:$H$1315, $A7)</f>
         <v>0</v>
       </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="6"/>
+      <c r="T7">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A7,DataRegularSeason20242025!$H$2:$H$1315, $A7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A7)</f>
+      <c r="U7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D7">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A7)</f>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A8)</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A8)</f>
         <v>0</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A8, DataRegularSeason20242025!$L$2:$L$1315, A8)</f>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A7, DataRegularSeason20242025!$L$2:$L$1315, A7)</f>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A8, DataRegularSeason20242025!$L8:$L1321, A8)</f>
         <v>0</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A7, DataRegularSeason20242025!$L7:$L1320, A7)</f>
+      <c r="J8">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A8, DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A8, DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A8,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N8">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A8,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="J7">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A7,DataRegularSeason20242025!$H$2:$H$1315, $A7)</f>
+      <c r="O8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A7,DataRegularSeason20242025!$H$2:$H$1315, $A7)</f>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="S8">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A8,DataRegularSeason20242025!$H$2:$H$1315, $A8)</f>
         <v>0</v>
       </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="3"/>
+      <c r="T8">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A8,DataRegularSeason20242025!$H$2:$H$1315, $A8)</f>
         <v>0</v>
       </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="U8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="5"/>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="6"/>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>COL</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A9, DataRegularSeason20242025!$L$2:$L$1315, A9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A8)</f>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A9, DataRegularSeason20242025!$L9:$L1322, A9)</f>
         <v>0</v>
       </c>
-      <c r="D8">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A8)</f>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A9, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K9">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A9, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A8, DataRegularSeason20242025!$L$2:$L$1315, A8)</f>
+      <c r="L9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M9">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A9,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H8">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A8, DataRegularSeason20242025!$L8:$L1321, A8)</f>
+      <c r="N9">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A9,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A8,DataRegularSeason20242025!$H$2:$H$1315, $A8)</f>
+      <c r="P9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K8">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A8,DataRegularSeason20242025!$H$2:$H$1315, $A8)</f>
+      <c r="Q9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S9">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A9,DataRegularSeason20242025!$H$2:$H$1315, $A9)</f>
         <v>0</v>
       </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="5"/>
+      <c r="T9">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A9,DataRegularSeason20242025!$H$2:$H$1315, $A9)</f>
         <v>0</v>
       </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="6"/>
+      <c r="U9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A9)</f>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A10)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A10, DataRegularSeason20242025!$L$2:$L$1315, A10)</f>
         <v>0</v>
       </c>
-      <c r="D9">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A9)</f>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A10, DataRegularSeason20242025!$L10:$L1323, A10)</f>
         <v>0</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A10, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A9, DataRegularSeason20242025!$L$2:$L$1315, A9)</f>
+      <c r="K10">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A10, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A9, DataRegularSeason20242025!$L9:$L1322, A9)</f>
+      <c r="M10">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A10,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N10">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A10,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="J9">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A9,DataRegularSeason20242025!$H$2:$H$1315, $A9)</f>
+      <c r="O10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A9,DataRegularSeason20242025!$H$2:$H$1315, $A9)</f>
+      <c r="P10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Q10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="4"/>
+      <c r="R10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="5"/>
+      <c r="S10">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A10,DataRegularSeason20242025!$H$2:$H$1315, $A10)</f>
         <v>0</v>
       </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="6"/>
+      <c r="T10">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A10,DataRegularSeason20242025!$H$2:$H$1315, $A10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A10)</f>
+      <c r="U10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D10">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A10)</f>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>DET</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A11)</f>
         <v>0</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D11">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A11, DataRegularSeason20242025!$L$2:$L$1315, A11)</f>
         <v>0</v>
       </c>
-      <c r="F10">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A10, DataRegularSeason20242025!$L$2:$L$1315, A10)</f>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H11">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A11, DataRegularSeason20242025!$L11:$L1324, A11)</f>
         <v>0</v>
       </c>
-      <c r="H10">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A10, DataRegularSeason20242025!$L10:$L1323, A10)</f>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A11, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K11">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A11, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="J10">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A10,DataRegularSeason20242025!$H$2:$H$1315, $A10)</f>
+      <c r="L11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A10,DataRegularSeason20242025!$H$2:$H$1315, $A10)</f>
+      <c r="M11">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A11,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="3"/>
+      <c r="N11">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A11,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="4"/>
+      <c r="O11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="6"/>
+      <c r="Q11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A11)</f>
+      <c r="R11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D11">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A11)</f>
+      <c r="S11">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A11,DataRegularSeason20242025!$H$2:$H$1315, $A11)</f>
         <v>0</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
+      <c r="T11">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A11,DataRegularSeason20242025!$H$2:$H$1315, $A11)</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F11">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A11, DataRegularSeason20242025!$L$2:$L$1315, A11)</f>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>EDM</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A12)</f>
         <v>0</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D12">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A12)</f>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A12, DataRegularSeason20242025!$L$2:$L$1315, A12)</f>
         <v>0</v>
       </c>
-      <c r="H11">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A11, DataRegularSeason20242025!$L11:$L1324, A11)</f>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H12">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A12, DataRegularSeason20242025!$L12:$L1325, A12)</f>
         <v>0</v>
       </c>
-      <c r="J11">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A11,DataRegularSeason20242025!$H$2:$H$1315, $A11)</f>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A12, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="K11">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A11,DataRegularSeason20242025!$H$2:$H$1315, $A11)</f>
+      <c r="K12">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A12, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="4"/>
+      <c r="M12">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A12,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="5"/>
+      <c r="N12">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A12,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="6"/>
+      <c r="O12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A12)</f>
+      <c r="P12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D12">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A12)</f>
+      <c r="Q12">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R12">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A12, DataRegularSeason20242025!$L$2:$L$1315, A12)</f>
+      <c r="S12">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A12,DataRegularSeason20242025!$H$2:$H$1315, $A12)</f>
         <v>0</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T12">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A12,DataRegularSeason20242025!$H$2:$H$1315, $A12)</f>
         <v>0</v>
       </c>
-      <c r="H12">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A12, DataRegularSeason20242025!$L12:$L1325, A12)</f>
+      <c r="U12">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="2"/>
+      <c r="V12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J12">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A12,DataRegularSeason20242025!$H$2:$H$1315, $A12)</f>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A13)</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A13, DataRegularSeason20242025!$L$2:$L$1315, A13)</f>
         <v>0</v>
       </c>
-      <c r="K12">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A12,DataRegularSeason20242025!$H$2:$H$1315, $A12)</f>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A13, DataRegularSeason20242025!$L13:$L1326, A13)</f>
         <v>0</v>
       </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A13, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K13">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A13, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="5"/>
+      <c r="L13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="6"/>
+      <c r="M13">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A13,DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A13,DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A13,DataRegularSeason20242025!$H$2:$H$1315, $A13)</f>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A13,DataRegularSeason20242025!$H$2:$H$1315, $A13)</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A13)</f>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>LAK</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A14)</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A14)</f>
         <v>0</v>
       </c>
-      <c r="D13">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A13)</f>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A14, DataRegularSeason20242025!$L$2:$L$1315, A14)</f>
         <v>0</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A14, DataRegularSeason20242025!$L14:$L1327, A14)</f>
         <v>0</v>
       </c>
-      <c r="F13">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A13, DataRegularSeason20242025!$L$2:$L$1315, A13)</f>
+      <c r="I14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J14">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A14, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H13">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A13, DataRegularSeason20242025!$L13:$L1326, A13)</f>
+      <c r="K14">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A14, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A13,DataRegularSeason20242025!$H$2:$H$1315, $A13)</f>
+      <c r="M14">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A14,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="K13">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A13,DataRegularSeason20242025!$H$2:$H$1315, $A13)</f>
+      <c r="N14">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A14,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Q14">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="6"/>
+      <c r="R14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A14)</f>
+      <c r="S14">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A14,DataRegularSeason20242025!$H$2:$H$1315, $A14)</f>
         <v>0</v>
       </c>
-      <c r="D14">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A14)</f>
+      <c r="T14">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A14,DataRegularSeason20242025!$H$2:$H$1315, $A14)</f>
         <v>0</v>
       </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U14">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A14, DataRegularSeason20242025!$L$2:$L$1315, A14)</f>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A15)</f>
         <v>0</v>
       </c>
-      <c r="H14">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A14, DataRegularSeason20242025!$L14:$L1327, A14)</f>
+      <c r="D15">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A15, DataRegularSeason20242025!$L$2:$L$1315, A15)</f>
         <v>0</v>
       </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A14,DataRegularSeason20242025!$H$2:$H$1315, $A14)</f>
+      <c r="H15">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A15, DataRegularSeason20242025!$L15:$L1328, A15)</f>
         <v>0</v>
       </c>
-      <c r="K14">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A14,DataRegularSeason20242025!$H$2:$H$1315, $A14)</f>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A15, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K15">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A15, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L15">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="5"/>
+      <c r="M15">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A15,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N15">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A15,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C15">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A15)</f>
+      <c r="O15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D15">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A15)</f>
+      <c r="P15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Q15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F15">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A15, DataRegularSeason20242025!$L$2:$L$1315, A15)</f>
+      <c r="R15">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S15">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A15,DataRegularSeason20242025!$H$2:$H$1315, $A15)</f>
         <v>0</v>
       </c>
-      <c r="H15">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A15, DataRegularSeason20242025!$L15:$L1328, A15)</f>
+      <c r="T15">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A15,DataRegularSeason20242025!$H$2:$H$1315, $A15)</f>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>MTL</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A16, DataRegularSeason20242025!$L$2:$L$1315, A16)</f>
         <v>0</v>
       </c>
-      <c r="J15">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A15,DataRegularSeason20242025!$H$2:$H$1315, $A15)</f>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A16, DataRegularSeason20242025!$L16:$L1329, A16)</f>
         <v>0</v>
       </c>
-      <c r="K15">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A15,DataRegularSeason20242025!$H$2:$H$1315, $A15)</f>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A16, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K16">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A16, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="5"/>
+      <c r="M16">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A16,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N16">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A16,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C16">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A16)</f>
+      <c r="O16">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D16">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A16)</f>
+      <c r="P16">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Q16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A16, DataRegularSeason20242025!$L$2:$L$1315, A16)</f>
+      <c r="R16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S16">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A16,DataRegularSeason20242025!$H$2:$H$1315, $A16)</f>
         <v>0</v>
       </c>
-      <c r="H16">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A16, DataRegularSeason20242025!$L16:$L1329, A16)</f>
+      <c r="T16">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A16,DataRegularSeason20242025!$H$2:$H$1315, $A16)</f>
         <v>0</v>
       </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="2"/>
+      <c r="U16">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J16">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A16,DataRegularSeason20242025!$H$2:$H$1315, $A16)</f>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>NJD</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A17)</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A17, DataRegularSeason20242025!$L$2:$L$1315, A17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A17, DataRegularSeason20242025!$L17:$L1330, A17)</f>
         <v>0</v>
       </c>
-      <c r="K16">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A16,DataRegularSeason20242025!$H$2:$H$1315, $A16)</f>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A17, DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A17, DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A17,DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A17,DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A17,DataRegularSeason20242025!$H$2:$H$1315, $A17)</f>
         <v>0</v>
       </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="3"/>
+      <c r="T17">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A17,DataRegularSeason20242025!$H$2:$H$1315, $A17)</f>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <v>NSH</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A18, DataRegularSeason20242025!$L$2:$L$1315, A18)</f>
         <v>0</v>
       </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A18, DataRegularSeason20242025!$L18:$L1331, A18)</f>
         <v>0</v>
       </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A18, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="6"/>
+      <c r="K18">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A18, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C17">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A17)</f>
+      <c r="L18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D17">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A17)</f>
+      <c r="M18">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A18,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N18">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A18,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F17">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A17, DataRegularSeason20242025!$L$2:$L$1315, A17)</f>
+      <c r="O18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A17, DataRegularSeason20242025!$L17:$L1330, A17)</f>
+      <c r="Q18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R18">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J17">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A17,DataRegularSeason20242025!$H$2:$H$1315, $A17)</f>
+      <c r="S18">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A18,DataRegularSeason20242025!$H$2:$H$1315, $A18)</f>
         <v>0</v>
       </c>
-      <c r="K17">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A17,DataRegularSeason20242025!$H$2:$H$1315, $A17)</f>
+      <c r="T18">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A18,DataRegularSeason20242025!$H$2:$H$1315, $A18)</f>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <v>NYI</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A19, DataRegularSeason20242025!$L$2:$L$1315, A19)</f>
         <v>0</v>
       </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A19, DataRegularSeason20242025!$L19:$L1332, A19)</f>
         <v>0</v>
       </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A19, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="6"/>
+      <c r="K19">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A19, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C18">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A18)</f>
+      <c r="L19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D18">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A18)</f>
+      <c r="M19">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A19,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N19">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A19,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F18">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A18, DataRegularSeason20242025!$L$2:$L$1315, A18)</f>
+      <c r="O19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A18, DataRegularSeason20242025!$L18:$L1331, A18)</f>
+      <c r="Q19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R19">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A18,DataRegularSeason20242025!$H$2:$H$1315, $A18)</f>
+      <c r="S19">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A19,DataRegularSeason20242025!$H$2:$H$1315, $A19)</f>
         <v>0</v>
       </c>
-      <c r="K18">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A18,DataRegularSeason20242025!$H$2:$H$1315, $A18)</f>
+      <c r="T19">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A19,DataRegularSeason20242025!$H$2:$H$1315, $A19)</f>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <v>NYR</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A20)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A20, DataRegularSeason20242025!$L$2:$L$1315, A20)</f>
         <v>0</v>
       </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A20, DataRegularSeason20242025!$L20:$L1333, A20)</f>
         <v>0</v>
       </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A20, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="6"/>
+      <c r="K20">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A20, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C19">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A19)</f>
+      <c r="L20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A19)</f>
+      <c r="M20">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A20,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N20">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A20,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F19">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A19, DataRegularSeason20242025!$L$2:$L$1315, A19)</f>
+      <c r="O20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H19">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A19, DataRegularSeason20242025!$L19:$L1332, A19)</f>
+      <c r="Q20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R20">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A19,DataRegularSeason20242025!$H$2:$H$1315, $A19)</f>
+      <c r="S20">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A20,DataRegularSeason20242025!$H$2:$H$1315, $A20)</f>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A20,DataRegularSeason20242025!$H$2:$H$1315, $A20)</f>
         <v>0</v>
       </c>
-      <c r="K19">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A19,DataRegularSeason20242025!$H$2:$H$1315, $A19)</f>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <v>OTT</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A21, DataRegularSeason20242025!$L$2:$L$1315, A21)</f>
         <v>0</v>
       </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A21, DataRegularSeason20242025!$L21:$L1334, A21)</f>
         <v>0</v>
       </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A21, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="6"/>
+      <c r="K21">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A21, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A20)</f>
+      <c r="L21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D20">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A20)</f>
+      <c r="M21">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A21,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N21">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A21,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="F20">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A20, DataRegularSeason20242025!$L$2:$L$1315, A20)</f>
+      <c r="O21">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P21">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A20, DataRegularSeason20242025!$L20:$L1333, A20)</f>
+      <c r="Q21">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R21">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A20,DataRegularSeason20242025!$H$2:$H$1315, $A20)</f>
+      <c r="S21">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A21,DataRegularSeason20242025!$H$2:$H$1315, $A21)</f>
         <v>0</v>
       </c>
-      <c r="K20">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A20,DataRegularSeason20242025!$H$2:$H$1315, $A20)</f>
+      <c r="T21">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A21,DataRegularSeason20242025!$H$2:$H$1315, $A21)</f>
         <v>0</v>
       </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="3"/>
+      <c r="U21">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="4"/>
+      <c r="V21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>PHI</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A22)</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A22)</f>
         <v>0</v>
       </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A22, DataRegularSeason20242025!$L$2:$L$1315, A22)</f>
         <v>0</v>
       </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A22, DataRegularSeason20242025!$L22:$L1335, A22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C21">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A21)</f>
+      <c r="I22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A21)</f>
+      <c r="J22">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A22, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K22">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A22, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A21, DataRegularSeason20242025!$L$2:$L$1315, A21)</f>
+      <c r="L22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M22">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A22,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H21">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A21, DataRegularSeason20242025!$L21:$L1334, A21)</f>
+      <c r="N22">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A22,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J21">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A21,DataRegularSeason20242025!$H$2:$H$1315, $A21)</f>
+      <c r="P22">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A21,DataRegularSeason20242025!$H$2:$H$1315, $A21)</f>
+      <c r="Q22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R22">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S22">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A22,DataRegularSeason20242025!$H$2:$H$1315, $A22)</f>
         <v>0</v>
       </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="5"/>
+      <c r="T22">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A22,DataRegularSeason20242025!$H$2:$H$1315, $A22)</f>
         <v>0</v>
       </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="6"/>
+      <c r="U22">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C22">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A22)</f>
+      <c r="V22">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D22">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A22)</f>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>PIT</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A23)</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A23, DataRegularSeason20242025!$L$2:$L$1315, A23)</f>
         <v>0</v>
       </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A23, DataRegularSeason20242025!$L23:$L1336, A23)</f>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A22, DataRegularSeason20242025!$L$2:$L$1315, A22)</f>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A23, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K23">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A23, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H22">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A22, DataRegularSeason20242025!$L22:$L1335, A22)</f>
+      <c r="L23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="2"/>
+      <c r="M23">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A23,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="J22">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A22,DataRegularSeason20242025!$H$2:$H$1315, $A22)</f>
+      <c r="N23">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A23,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="K22">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A22,DataRegularSeason20242025!$H$2:$H$1315, $A22)</f>
+      <c r="O23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="3"/>
+      <c r="P23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="4"/>
+      <c r="Q23">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N22">
-        <f t="shared" ca="1" si="5"/>
+      <c r="R23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="6"/>
+      <c r="S23">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A23,DataRegularSeason20242025!$H$2:$H$1315, $A23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C23">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A23)</f>
+      <c r="T23">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A23,DataRegularSeason20242025!$H$2:$H$1315, $A23)</f>
         <v>0</v>
       </c>
-      <c r="D23">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A23)</f>
+      <c r="U23">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V23">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>SEA</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A24)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A24, DataRegularSeason20242025!$L$2:$L$1315, A24)</f>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A23, DataRegularSeason20242025!$L$2:$L$1315, A23)</f>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A24, DataRegularSeason20242025!$L24:$L1337, A24)</f>
         <v>0</v>
       </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A24, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H23">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A23, DataRegularSeason20242025!$L23:$L1336, A23)</f>
+      <c r="K24">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A24, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A23,DataRegularSeason20242025!$H$2:$H$1315, $A23)</f>
+      <c r="M24">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A24,DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A24,DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A24,DataRegularSeason20242025!$H$2:$H$1315, $A24)</f>
         <v>0</v>
       </c>
-      <c r="K23">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A23,DataRegularSeason20242025!$H$2:$H$1315, $A23)</f>
+      <c r="T24">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A24,DataRegularSeason20242025!$H$2:$H$1315, $A24)</f>
         <v>0</v>
       </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="3"/>
+      <c r="U24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="4"/>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>SJS</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A25)</f>
         <v>0</v>
       </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D25">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A25)</f>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A25, DataRegularSeason20242025!$L$2:$L$1315, A25)</f>
         <v>0</v>
       </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C24">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A24)</f>
+      <c r="H25">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A25, DataRegularSeason20242025!$L25:$L1338, A25)</f>
         <v>0</v>
       </c>
-      <c r="D24">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A24)</f>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A25, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K25">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A25, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F24">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A24, DataRegularSeason20242025!$L$2:$L$1315, A24)</f>
+      <c r="L25">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M25">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A25,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H24">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A24, DataRegularSeason20242025!$L24:$L1337, A24)</f>
+      <c r="N25">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A25,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J24">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A24,DataRegularSeason20242025!$H$2:$H$1315, $A24)</f>
+      <c r="P25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K24">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A24,DataRegularSeason20242025!$H$2:$H$1315, $A24)</f>
+      <c r="Q25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R25">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S25">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A25,DataRegularSeason20242025!$H$2:$H$1315, $A25)</f>
         <v>0</v>
       </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="5"/>
+      <c r="T25">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A25,DataRegularSeason20242025!$H$2:$H$1315, $A25)</f>
         <v>0</v>
       </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="6"/>
+      <c r="U25">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C25">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A25)</f>
+      <c r="V25">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D25">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A25)</f>
+      <c r="W25">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>STL</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A26)</f>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A26)</f>
         <v>0</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A26, DataRegularSeason20242025!$L$2:$L$1315, A26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A26, DataRegularSeason20242025!$L26:$L1339, A26)</f>
         <v>0</v>
       </c>
-      <c r="F25">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A25, DataRegularSeason20242025!$L$2:$L$1315, A25)</f>
+      <c r="I26">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J26">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A26, DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A26, DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A26,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H25">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A25, DataRegularSeason20242025!$L25:$L1338, A25)</f>
+      <c r="N26">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A26,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O26">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J25">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A25,DataRegularSeason20242025!$H$2:$H$1315, $A25)</f>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A26,DataRegularSeason20242025!$H$2:$H$1315, $A26)</f>
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A26,DataRegularSeason20242025!$H$2:$H$1315, $A26)</f>
         <v>0</v>
       </c>
-      <c r="K25">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A25,DataRegularSeason20242025!$H$2:$H$1315, $A25)</f>
+      <c r="U26">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="3"/>
+      <c r="W26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="4"/>
+      <c r="X26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>TBL</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A27, DataRegularSeason20242025!$L$2:$L$1315, A27)</f>
         <v>0</v>
       </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A27, DataRegularSeason20242025!$L27:$L1340, A27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C26">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A26)</f>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A27, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="D26">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A26)</f>
+      <c r="K27">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A27, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F26">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A26, DataRegularSeason20242025!$L$2:$L$1315, A26)</f>
+      <c r="M27">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A27,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N27">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A27,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H26">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A26, DataRegularSeason20242025!$L26:$L1339, A26)</f>
+      <c r="O27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="2"/>
+      <c r="P27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J26">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A26,DataRegularSeason20242025!$H$2:$H$1315, $A26)</f>
+      <c r="Q27">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A26,DataRegularSeason20242025!$H$2:$H$1315, $A26)</f>
+      <c r="R27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="3"/>
+      <c r="S27">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A27,DataRegularSeason20242025!$H$2:$H$1315, $A27)</f>
         <v>0</v>
       </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="4"/>
+      <c r="T27">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A27,DataRegularSeason20242025!$H$2:$H$1315, $A27)</f>
         <v>0</v>
       </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="U27">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="6"/>
+      <c r="V27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>TOR</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A28)</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A28, DataRegularSeason20242025!$L$2:$L$1315, A28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C27">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A27)</f>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A28, DataRegularSeason20242025!$L28:$L1341, A28)</f>
         <v>0</v>
       </c>
-      <c r="D27">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A27)</f>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A28, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K28">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A28, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F27">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A27, DataRegularSeason20242025!$L$2:$L$1315, A27)</f>
+      <c r="L28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M28">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A28,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H27">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A27, DataRegularSeason20242025!$L27:$L1340, A27)</f>
+      <c r="N28">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A28,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A27,DataRegularSeason20242025!$H$2:$H$1315, $A27)</f>
+      <c r="P28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K27">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A27,DataRegularSeason20242025!$H$2:$H$1315, $A27)</f>
+      <c r="Q28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R28">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S28">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A28,DataRegularSeason20242025!$H$2:$H$1315, $A28)</f>
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A28,DataRegularSeason20242025!$H$2:$H$1315, $A28)</f>
         <v>0</v>
       </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="5"/>
+      <c r="U28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="W28">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>UTA</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A29)</f>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A29)</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A29, DataRegularSeason20242025!$L$2:$L$1315, A29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C28">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A28)</f>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A29, DataRegularSeason20242025!$L29:$L1342, A29)</f>
         <v>0</v>
       </c>
-      <c r="D28">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A28)</f>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A29, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K29">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A29, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F28">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A28, DataRegularSeason20242025!$L$2:$L$1315, A28)</f>
+      <c r="L29">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M29">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A29,DataRegularSeason20242025!$K$2:$K$1315)</f>
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A29,DataRegularSeason20242025!$J$2:$J$1315)</f>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A29,DataRegularSeason20242025!$H$2:$H$1315, $A29)</f>
         <v>0</v>
       </c>
-      <c r="H28">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A28, DataRegularSeason20242025!$L28:$L1341, A28)</f>
+      <c r="T29">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A29,DataRegularSeason20242025!$H$2:$H$1315, $A29)</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X29">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>VAN</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A30)</f>
         <v>0</v>
       </c>
-      <c r="J28">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A28,DataRegularSeason20242025!$H$2:$H$1315, $A28)</f>
+      <c r="D30">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A30)</f>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A30, DataRegularSeason20242025!$L$2:$L$1315, A30)</f>
         <v>0</v>
       </c>
-      <c r="K28">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A28,DataRegularSeason20242025!$H$2:$H$1315, $A28)</f>
+      <c r="G30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H30">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A30, DataRegularSeason20242025!$L30:$L1343, A30)</f>
         <v>0</v>
       </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A30, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="5"/>
+      <c r="K30">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A30, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="6"/>
+      <c r="L30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C29">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A29)</f>
+      <c r="M30">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A30,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="D29">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A29)</f>
+      <c r="N30">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A30,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F29">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A29, DataRegularSeason20242025!$L$2:$L$1315, A29)</f>
+      <c r="P30">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q30">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A29, DataRegularSeason20242025!$L29:$L1342, A29)</f>
+      <c r="R30">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="2"/>
+      <c r="S30">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A30,DataRegularSeason20242025!$H$2:$H$1315, $A30)</f>
         <v>0</v>
       </c>
-      <c r="J29">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A29,DataRegularSeason20242025!$H$2:$H$1315, $A29)</f>
+      <c r="T30">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A30,DataRegularSeason20242025!$H$2:$H$1315, $A30)</f>
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K29">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A29,DataRegularSeason20242025!$H$2:$H$1315, $A29)</f>
+      <c r="W30">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X30">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <v>VGK</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A31)</f>
         <v>0</v>
       </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D31">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A31)</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A31, DataRegularSeason20242025!$L$2:$L$1315, A31)</f>
         <v>0</v>
       </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C30">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A30)</f>
+      <c r="H31">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A31, DataRegularSeason20242025!$L31:$L1344, A31)</f>
         <v>0</v>
       </c>
-      <c r="D30">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A30)</f>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A31, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K31">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A31, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F30">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A30, DataRegularSeason20242025!$L$2:$L$1315, A30)</f>
+      <c r="L31">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M31">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A31,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H30">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A30, DataRegularSeason20242025!$L30:$L1343, A30)</f>
+      <c r="N31">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A31,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A30,DataRegularSeason20242025!$H$2:$H$1315, $A30)</f>
+      <c r="P31">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K30">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A30,DataRegularSeason20242025!$H$2:$H$1315, $A30)</f>
+      <c r="Q31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R31">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S31">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A31,DataRegularSeason20242025!$H$2:$H$1315, $A31)</f>
         <v>0</v>
       </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="5"/>
+      <c r="T31">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A31,DataRegularSeason20242025!$H$2:$H$1315, $A31)</f>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <v>WPG</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A32)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A32)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A32, DataRegularSeason20242025!$L$2:$L$1315, A32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C31">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A31)</f>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A32, DataRegularSeason20242025!$L32:$L1345, A32)</f>
         <v>0</v>
       </c>
-      <c r="D31">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A31)</f>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A32, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K32">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A32, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A31, DataRegularSeason20242025!$L$2:$L$1315, A31)</f>
+      <c r="L32">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M32">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A32,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="H31">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A31, DataRegularSeason20242025!$L31:$L1344, A31)</f>
+      <c r="N32">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A32,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A31,DataRegularSeason20242025!$H$2:$H$1315, $A31)</f>
+      <c r="P32">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K31">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A31,DataRegularSeason20242025!$H$2:$H$1315, $A31)</f>
+      <c r="Q32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R32">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S32">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A32,DataRegularSeason20242025!$H$2:$H$1315, $A32)</f>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A32,DataRegularSeason20242025!$H$2:$H$1315, $A32)</f>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="5"/>
+      <c r="W32">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="6"/>
+      <c r="X32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C32">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A32)</f>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <v>WSH</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A33)</f>
         <v>0</v>
       </c>
-      <c r="D32">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A32)</f>
+      <c r="D33">
+        <f>COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A33)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A33, DataRegularSeason20242025!$L$2:$L$1315, A33)</f>
         <v>0</v>
       </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A32, DataRegularSeason20242025!$L$2:$L$1315, A32)</f>
+      <c r="H33">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A33, DataRegularSeason20242025!$L33:$L1346, A33)</f>
         <v>0</v>
       </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A33, DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="H32">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A32, DataRegularSeason20242025!$L32:$L1345, A32)</f>
+      <c r="K33">
+        <f>SUMIF(DataRegularSeason20242025!$D$2:$D$1315,StatsRegularSeason20242025!$A33, DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L33">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A32,DataRegularSeason20242025!$H$2:$H$1315, $A32)</f>
+      <c r="M33">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A33,DataRegularSeason20242025!$K$2:$K$1315)</f>
         <v>0</v>
       </c>
-      <c r="K32">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A32,DataRegularSeason20242025!$H$2:$H$1315, $A32)</f>
+      <c r="N33">
+        <f>SUMIF(DataRegularSeason20242025!$E$2:$E$1315,StatsRegularSeason20242025!$A33,DataRegularSeason20242025!$J$2:$J$1315)</f>
         <v>0</v>
       </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="4"/>
+      <c r="P33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Q33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="6"/>
+      <c r="R33">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="C33">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$D$2:$D$1315,$A33)</f>
+      <c r="S33">
+        <f>COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A33,DataRegularSeason20242025!$H$2:$H$1315, $A33)</f>
         <v>0</v>
       </c>
-      <c r="D33">
-        <f ca="1">COUNTIF(DataRegularSeason20242025!$E$2:$E$1315,$A33)</f>
+      <c r="T33">
+        <f>COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A33,DataRegularSeason20242025!$H$2:$H$1315, $A33)</f>
         <v>0</v>
       </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U33">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F33">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,A33, DataRegularSeason20242025!$L$2:$L$1315, A33)</f>
+      <c r="V33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,A33, DataRegularSeason20242025!$L33:$L1346, A33)</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$D$2:$D$1315,$A33,DataRegularSeason20242025!$H$2:$H$1315, $A33)</f>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f ca="1">COUNTIFS(DataRegularSeason20242025!$E$2:$E$1315,$A33,DataRegularSeason20242025!$H$2:$H$1315, $A33)</f>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+      <c r="W33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
